--- a/IDSL.UFAx/inst/extdata/UFAx_parameters.xlsx
+++ b/IDSL.UFAx/inst/extdata/UFAx_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9285"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9288"/>
   </bookViews>
   <sheets>
     <sheet name="exhaustive_chemical_enumeration" sheetId="1" r:id="rId1"/>
@@ -386,9 +386,6 @@
     <t>You may download the PubChem library from www.github.com/</t>
   </si>
   <si>
-    <t>"All" or a vector of comma seperated IDSL.IPA peak ID indices</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -547,16 +544,19 @@
     <t>rep(1, 5)</t>
   </si>
   <si>
-    <t>c(1e30, 1e-12)</t>
-  </si>
-  <si>
-    <t>Default values are c(1e30, 1e-12). See the`UFA_IP_memeory_variables` parameter from `Isotopic Profile Calculator` documentation to adjust memory usage.</t>
-  </si>
-  <si>
     <t>≥ 0, Maximum space between neighboring isotopologues</t>
   </si>
   <si>
     <t>"YES" OR "NO"(When "YES", fill out ECE0035-ECE0036)</t>
+  </si>
+  <si>
+    <t>"All" or a vector of comma separated IDSL.IPA peak ID indices</t>
+  </si>
+  <si>
+    <t>c(1e30, 1e-12, 10)</t>
+  </si>
+  <si>
+    <t>Default values are c(1e30, 1e-12, 10). See the `UFA_IP_memeory_variables` parameter from `Isotopic Profile Calculator` documentation to adjust memory usage.</t>
   </si>
 </sst>
 </file>
@@ -1410,25 +1410,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="89.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="72.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="89.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
@@ -1454,28 +1454,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="9" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75"/>
       <c r="B3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
@@ -1491,76 +1491,76 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75"/>
       <c r="B4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="75"/>
       <c r="B5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
       <c r="B6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="75"/>
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
       <c r="B8" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>48</v>
@@ -1575,12 +1575,12 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="56.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="56.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>54</v>
@@ -1595,10 +1595,10 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78"/>
       <c r="B10" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>28</v>
@@ -1607,16 +1607,16 @@
         <v>3</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78"/>
       <c r="B11" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>29</v>
@@ -1629,10 +1629,10 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78"/>
       <c r="B12" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>41</v>
@@ -1645,10 +1645,10 @@
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>30</v>
@@ -1661,10 +1661,10 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78"/>
       <c r="B14" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>31</v>
@@ -1677,10 +1677,10 @@
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
       <c r="B15" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>32</v>
@@ -1693,10 +1693,10 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
       <c r="B16" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>33</v>
@@ -1709,10 +1709,10 @@
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78"/>
       <c r="B17" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>34</v>
@@ -1725,10 +1725,10 @@
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>35</v>
@@ -1741,10 +1741,10 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
       <c r="B19" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>36</v>
@@ -1757,10 +1757,10 @@
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>37</v>
@@ -1773,10 +1773,10 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="79"/>
       <c r="B21" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>38</v>
@@ -1789,12 +1789,12 @@
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
     </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>20</v>
@@ -1809,10 +1809,10 @@
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
     </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="84"/>
       <c r="B23" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>39</v>
@@ -1821,16 +1821,16 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
     </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="84"/>
       <c r="B24" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>21</v>
@@ -1845,28 +1845,28 @@
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
     </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="84"/>
       <c r="B25" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
     </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="84"/>
       <c r="B26" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>42</v>
@@ -1881,10 +1881,10 @@
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="84"/>
       <c r="B27" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="65" t="s">
         <v>52</v>
@@ -1899,10 +1899,10 @@
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
     </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="85"/>
       <c r="B28" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="61" t="s">
         <v>43</v>
@@ -1917,12 +1917,12 @@
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
     </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="86" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>40</v>
@@ -1943,10 +1943,10 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="87"/>
       <c r="B30" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>11</v>
@@ -1967,10 +1967,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="B31" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
@@ -1991,10 +1991,10 @@
         <v>950</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="87"/>
       <c r="B32" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>13</v>
@@ -2009,10 +2009,10 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="87"/>
       <c r="B33" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>14</v>
@@ -2027,16 +2027,16 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="88"/>
       <c r="B34" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>22</v>
@@ -2045,33 +2045,36 @@
       <c r="G34" s="69"/>
       <c r="H34" s="69"/>
     </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="88"/>
       <c r="B35" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="71" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
     </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="88"/>
       <c r="B36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="69"/>
+      <c r="D36" s="69" t="str">
+        <f>D22</f>
+        <v>[M-H]</v>
+      </c>
       <c r="E36" s="70" t="s">
         <v>61</v>
       </c>
@@ -2079,10 +2082,10 @@
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
     </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="9" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="89"/>
       <c r="B37" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="49" t="s">
         <v>62</v>
@@ -2095,7 +2098,7 @@
       <c r="G37" s="50"/>
       <c r="H37" s="50"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A8"/>

--- a/IDSL.UFAx/inst/extdata/UFAx_parameters.xlsx
+++ b/IDSL.UFAx/inst/extdata/UFAx_parameters.xlsx
@@ -194,9 +194,6 @@
     <t>Maximum chlorine</t>
   </si>
   <si>
-    <t>Halogen rule (br + cl + f + i) to indicate maximum number of halogens in a molecular formula</t>
-  </si>
-  <si>
     <t>Maximum theoretical R13C</t>
   </si>
   <si>
@@ -378,12 +375,6 @@
   </si>
   <si>
     <t>.A string vector of ionization pathways. Each ionization pathway should be inside brackets and quotation marks</t>
-  </si>
-  <si>
-    <t>Address of molecular formulas library (.Rdata) This library must have been produced by the 'molecular_formula_library_generator' module</t>
-  </si>
-  <si>
-    <t>You may download the PubChem library from www.github.com/</t>
   </si>
   <si>
     <t>All</t>
@@ -558,12 +549,42 @@
   <si>
     <t>Default values are c(1e30, 1e-12, 10). See the `UFA_IP_memeory_variables` parameter from `Isotopic Profile Calculator` documentation to adjust memory usage.</t>
   </si>
+  <si>
+    <t>Halogen rule Σ(br + cl + f + i) to indicate maximum number of halogens in a molecular formula</t>
+  </si>
+  <si>
+    <r>
+      <t>Address of molecular formulas library (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) This library must have been produced by the 'molecular_formula_library_generator' module</t>
+    </r>
+  </si>
+  <si>
+    <t>You may download the PubChem library from https://zenodo.org/record/7065107/files/PubChem_MolecularFormula_Freq_Database.Rdata?download=1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +652,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1411,8 +1439,8 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1456,16 +1484,16 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="28"/>
@@ -1475,7 +1503,7 @@
     <row r="3" spans="1:8" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75"/>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
@@ -1494,16 +1522,16 @@
     <row r="4" spans="1:8" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75"/>
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1512,13 +1540,13 @@
     <row r="5" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="75"/>
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="18"/>
@@ -1528,13 +1556,13 @@
     <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
       <c r="B6" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
@@ -1544,13 +1572,13 @@
     <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="75"/>
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
@@ -1560,10 +1588,10 @@
     <row r="8" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
       <c r="B8" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="39">
         <v>1</v>
@@ -1577,19 +1605,19 @@
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="56.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="35">
         <v>12</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="23"/>
@@ -1598,7 +1626,7 @@
     <row r="10" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78"/>
       <c r="B10" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>28</v>
@@ -1607,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -1616,7 +1644,7 @@
     <row r="11" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78"/>
       <c r="B11" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>29</v>
@@ -1632,7 +1660,7 @@
     <row r="12" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78"/>
       <c r="B12" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>41</v>
@@ -1648,7 +1676,7 @@
     <row r="13" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>30</v>
@@ -1664,7 +1692,7 @@
     <row r="14" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78"/>
       <c r="B14" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>31</v>
@@ -1680,7 +1708,7 @@
     <row r="15" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
       <c r="B15" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>32</v>
@@ -1696,7 +1724,7 @@
     <row r="16" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
       <c r="B16" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>33</v>
@@ -1712,7 +1740,7 @@
     <row r="17" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78"/>
       <c r="B17" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>34</v>
@@ -1728,7 +1756,7 @@
     <row r="18" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>35</v>
@@ -1744,7 +1772,7 @@
     <row r="19" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
       <c r="B19" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>36</v>
@@ -1760,7 +1788,7 @@
     <row r="20" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>37</v>
@@ -1776,7 +1804,7 @@
     <row r="21" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="79"/>
       <c r="B21" s="41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>38</v>
@@ -1791,19 +1819,19 @@
     </row>
     <row r="22" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -1812,7 +1840,7 @@
     <row r="23" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="84"/>
       <c r="B23" s="56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>39</v>
@@ -1821,7 +1849,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="58"/>
@@ -1830,16 +1858,16 @@
     <row r="24" spans="1:8" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="84"/>
       <c r="B24" s="56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
@@ -1848,16 +1876,16 @@
     <row r="25" spans="1:8" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="84"/>
       <c r="B25" s="56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="58"/>
@@ -1866,16 +1894,16 @@
     <row r="26" spans="1:8" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="84"/>
       <c r="B26" s="56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="D26" s="58">
         <v>31</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="58"/>
@@ -1884,16 +1912,16 @@
     <row r="27" spans="1:8" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="84"/>
       <c r="B27" s="64" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="66" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="66"/>
       <c r="G27" s="66"/>
@@ -1902,16 +1930,16 @@
     <row r="28" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="85"/>
       <c r="B28" s="60" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="62">
         <v>80</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
@@ -1922,7 +1950,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>40</v>
@@ -1946,7 +1974,7 @@
     <row r="30" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="87"/>
       <c r="B30" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>11</v>
@@ -1970,7 +1998,7 @@
     <row r="31" spans="1:8" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="B31" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
@@ -1994,7 +2022,7 @@
     <row r="32" spans="1:8" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="87"/>
       <c r="B32" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>13</v>
@@ -2012,7 +2040,7 @@
     <row r="33" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="87"/>
       <c r="B33" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>14</v>
@@ -2030,13 +2058,13 @@
     <row r="34" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="88"/>
       <c r="B34" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>22</v>
@@ -2048,16 +2076,16 @@
     <row r="35" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="88"/>
       <c r="B35" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="73" t="s">
         <v>106</v>
-      </c>
-      <c r="E35" s="73" t="s">
-        <v>109</v>
       </c>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
@@ -2066,33 +2094,33 @@
     <row r="36" spans="1:8" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="88"/>
       <c r="B36" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="69" t="str">
         <f>D22</f>
         <v>[M-H]</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" s="69"/>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
     </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" s="9" customFormat="1" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="89"/>
       <c r="B37" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="51" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="F37" s="50"/>
       <c r="G37" s="50"/>
